--- a/data/employee_dup.xlsx
+++ b/data/employee_dup.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>Mireielle</t>
   </si>
   <si>
@@ -44,6 +47,12 @@
   </si>
   <si>
     <t>Wrennie, Platt</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Associate</t>
   </si>
 </sst>
 </file>
@@ -401,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,33 +429,42 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>100002</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>100006</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
